--- a/time_slice1/results/48 Time Slices (Annual).xlsx
+++ b/time_slice1/results/48 Time Slices (Annual).xlsx
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>337.3042762447736</v>
+        <v>0.9823865205560869</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>328.3378846271708</v>
+        <v>0.9637265035564961</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7591142923684924</v>
+        <v>0.7400590976121126</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326.0353041955327</v>
+        <v>0.9353167465705343</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -462,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7503309639992515</v>
+        <v>0.6828074648450281</v>
       </c>
       <c r="D6">
-        <v>0.8651981006510373</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>320.651923447565</v>
+        <v>0.9315294405586649</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -479,13 +479,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7469865651031483</v>
+        <v>0.5870887897832532</v>
       </c>
       <c r="D7">
-        <v>0.8508522288551668</v>
+        <v>0.976840039547211</v>
       </c>
       <c r="E7">
-        <v>319.5717554790143</v>
+        <v>0.9312476311682677</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -496,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.7400590976121126</v>
+        <v>0.5771762576642754</v>
       </c>
       <c r="D8">
-        <v>0.8239359876084675</v>
+        <v>0.8634540898327293</v>
       </c>
       <c r="E8">
-        <v>307.8059366261364</v>
+        <v>0.9108984883152097</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6509590946310146</v>
+        <v>0.5137724661057597</v>
       </c>
       <c r="D9">
-        <v>0.7904517386995362</v>
+        <v>0.8633952882222252</v>
       </c>
       <c r="E9">
-        <v>307.3035763261844</v>
+        <v>0.905791354461123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6400958426913959</v>
+        <v>0.4772189482501912</v>
       </c>
       <c r="D10">
-        <v>0.7722531629210476</v>
+        <v>0.8529597419640407</v>
       </c>
       <c r="E10">
-        <v>302.1667918871221</v>
+        <v>0.8894864601941135</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6326326635680602</v>
+        <v>0.4250339804148257</v>
       </c>
       <c r="D11">
-        <v>0.7653321216857406</v>
+        <v>0.8007789807126744</v>
       </c>
       <c r="E11">
-        <v>301.2769821586573</v>
+        <v>0.8853548778319839</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -564,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6221350123239843</v>
+        <v>0.4129361297063558</v>
       </c>
       <c r="D12">
-        <v>0.6969230017054048</v>
+        <v>0.7188970196905363</v>
       </c>
       <c r="E12">
-        <v>298.5437841871699</v>
+        <v>0.8780102180748125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -581,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6141430922258537</v>
+        <v>0.3980024954135508</v>
       </c>
       <c r="D13">
-        <v>0.6653641200663725</v>
+        <v>0.6500675023595511</v>
       </c>
       <c r="E13">
-        <v>298.3975228645246</v>
+        <v>0.8711895634507238</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -598,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4465688120360946</v>
+        <v>0.3970847507612081</v>
       </c>
       <c r="D14">
-        <v>0.6513624463908417</v>
+        <v>0.6479697898180518</v>
       </c>
       <c r="E14">
-        <v>297.9790153212563</v>
+        <v>0.8667887279745318</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -615,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4397315840150743</v>
+        <v>0.2887203033974454</v>
       </c>
       <c r="D15">
-        <v>0.5836660109140497</v>
+        <v>0.6304235800817464</v>
       </c>
       <c r="E15">
-        <v>290.1891907887089</v>
+        <v>0.8566151484556775</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -632,13 +632,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3930431855136395</v>
+        <v>0.2502910426961428</v>
       </c>
       <c r="D16">
-        <v>0.5731205896714047</v>
+        <v>0.6137558656229152</v>
       </c>
       <c r="E16">
-        <v>289.8122839867337</v>
+        <v>0.8156345646501726</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3901577680829882</v>
+        <v>0.2179931968996822</v>
       </c>
       <c r="D17">
-        <v>0.5689989196141821</v>
+        <v>0.5388701460809788</v>
       </c>
       <c r="E17">
-        <v>287.7974187465675</v>
+        <v>0.8131040132092834</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -666,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3397866590043612</v>
+        <v>0.1904504487756458</v>
       </c>
       <c r="D18">
-        <v>0.5633788279282284</v>
+        <v>0.5118476879958362</v>
       </c>
       <c r="E18">
-        <v>286.2933842526731</v>
+        <v>0.7879128779456659</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3391922120408707</v>
+        <v>0.189922971558434</v>
       </c>
       <c r="D19">
-        <v>0.556739023828185</v>
+        <v>0.492609425427305</v>
       </c>
       <c r="E19">
-        <v>283.0527725196225</v>
+        <v>0.7864851677199181</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -700,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3208894838876676</v>
+        <v>0.1764177467451522</v>
       </c>
       <c r="D20">
-        <v>0.4429185709538019</v>
+        <v>0.4053349408083011</v>
       </c>
       <c r="E20">
-        <v>278.0174035532978</v>
+        <v>0.7850533312395802</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -717,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3053298038353129</v>
+        <v>0.1731712289610451</v>
       </c>
       <c r="D21">
-        <v>0.4346384321737902</v>
+        <v>0.3856905492906512</v>
       </c>
       <c r="E21">
-        <v>277.5588556057552</v>
+        <v>0.7818093789537932</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2403744148571627</v>
+        <v>0.1423736963008078</v>
       </c>
       <c r="D22">
-        <v>0.3846739599157232</v>
+        <v>0.3771105278494064</v>
       </c>
       <c r="E22">
-        <v>275.0514972919871</v>
+        <v>0.776281583207482</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.217418362819566</v>
+        <v>0.1423486169394809</v>
       </c>
       <c r="D23">
-        <v>0.3565325952730309</v>
+        <v>0.3682586112656798</v>
       </c>
       <c r="E23">
-        <v>274.1283293898295</v>
+        <v>0.7654434488601862</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -768,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2082160293159199</v>
+        <v>0.0523486523215</v>
       </c>
       <c r="D24">
-        <v>0.3474720665909125</v>
+        <v>0.3318607279475822</v>
       </c>
       <c r="E24">
-        <v>273.6570720000006</v>
+        <v>0.7620715789448312</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.171841160791385</v>
+        <v>0.03508867505902239</v>
       </c>
       <c r="D25">
-        <v>0.3240673148107516</v>
+        <v>0.3019450717801371</v>
       </c>
       <c r="E25">
-        <v>271.9269312711182</v>
+        <v>0.7533263723377512</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.1150540275199417</v>
+        <v>0.03485487344360064</v>
       </c>
       <c r="D26">
-        <v>0.3056411973464118</v>
+        <v>0.2398657402220651</v>
       </c>
       <c r="E26">
-        <v>268.622524610043</v>
+        <v>0.7531710095403081</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.06458834616</v>
+        <v>0.02825523754797709</v>
       </c>
       <c r="D27">
-        <v>0.2917725777931224</v>
+        <v>0.2170141870016536</v>
       </c>
       <c r="E27">
-        <v>267.722452284787</v>
+        <v>0.7326611572557425</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.03310468374426081</v>
+        <v>0.02712725648463746</v>
       </c>
       <c r="D28">
-        <v>0.2832429203331978</v>
+        <v>0.1789074873928006</v>
       </c>
       <c r="E28">
-        <v>267.3224594368331</v>
+        <v>0.7246232311982086</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.00676735269</v>
+        <v>0.0122872406795</v>
       </c>
       <c r="D29">
-        <v>0.2827700073802529</v>
+        <v>0.1761122703800855</v>
       </c>
       <c r="E29">
-        <v>247.7799518368162</v>
+        <v>0.719417815873481</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.004154172519763572</v>
+        <v>0.001130729772</v>
       </c>
       <c r="D30">
-        <v>0.2713754946979337</v>
+        <v>0.1676922492773509</v>
       </c>
       <c r="E30">
-        <v>247.3238399653036</v>
+        <v>0.6934843725753204</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -890,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.2601313129089846</v>
+        <v>0.1646941958614382</v>
       </c>
       <c r="E31">
-        <v>245.3921767414923</v>
+        <v>0.6833798272223561</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.2600739816300024</v>
+        <v>0.1594405051871975</v>
       </c>
       <c r="E32">
-        <v>242.3787316482413</v>
+        <v>0.6830414448385341</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.2292566839234125</v>
+        <v>0.1210070951705912</v>
       </c>
       <c r="E33">
-        <v>239.5620301466278</v>
+        <v>0.6651988884771657</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.2265813769808682</v>
+        <v>0.1142401652795881</v>
       </c>
       <c r="E34">
-        <v>234.75162531962</v>
+        <v>0.6615688460116906</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.2182647273283536</v>
+        <v>0.1087271084001061</v>
       </c>
       <c r="E35">
-        <v>233.091779210609</v>
+        <v>0.6610072851929103</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.1948738800439908</v>
+        <v>0.08484423814333987</v>
       </c>
       <c r="E36">
-        <v>232.1338863311754</v>
+        <v>0.6467985421457038</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.1857554292181699</v>
+        <v>0.08078199188840224</v>
       </c>
       <c r="E37">
-        <v>232.0154542849933</v>
+        <v>0.6448251264945043</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.1750023849287095</v>
+        <v>0.05088267622062143</v>
       </c>
       <c r="E38">
-        <v>228.2258235433894</v>
+        <v>0.6347263590520754</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.1474717981145821</v>
+        <v>0.03215609371052922</v>
       </c>
       <c r="E39">
-        <v>225.7895824883441</v>
+        <v>0.6287857379423045</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.1369282876256064</v>
+        <v>0.02615731988721298</v>
       </c>
       <c r="E40">
-        <v>223.6280811240041</v>
+        <v>0.6241528141533188</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.1094661819472184</v>
+        <v>0.01361248844795499</v>
       </c>
       <c r="E41">
-        <v>217.0605455463481</v>
+        <v>0.5901572950377392</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.09587827393142284</v>
+        <v>0.007497880958346484</v>
       </c>
       <c r="E42">
-        <v>208.8943698145631</v>
+        <v>0.578808900078312</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.07730681219155379</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>206.1482359546806</v>
+        <v>0.5774284626881001</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.06594196871296627</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>204.7769412352675</v>
+        <v>0.5728564298677485</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.01350390754914808</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>200.7039656298353</v>
+        <v>0.5611573336012042</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>196.4050667604215</v>
+        <v>0.5606615699253369</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>175</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>162.9782866822885</v>
+        <v>0.4656522476636816</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>161.9426008385026</v>
+        <v>0.4626931452528645</v>
       </c>
     </row>
   </sheetData>
